--- a/xls/dem2020positions.xlsx
+++ b/xls/dem2020positions.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -959,20 +957,20 @@
       <alignment horizontal="center" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1366,7 +1364,7 @@
       <c r="U1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="61" t="s">
         <v>152</v>
       </c>
       <c r="W1" s="60"/>
@@ -1498,7 +1496,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1569,7 +1567,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="14" t="s">
         <v>33</v>
       </c>
@@ -1638,7 +1636,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="27" t="s">
         <v>34</v>
       </c>
@@ -1699,13 +1697,13 @@
       <c r="U6" s="26">
         <v>3</v>
       </c>
-      <c r="V6" s="62" t="s">
+      <c r="V6" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="W6" s="62"/>
+      <c r="W6" s="63"/>
     </row>
     <row r="7" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="27" t="s">
         <v>35</v>
       </c>
@@ -1766,11 +1764,11 @@
       <c r="U7" s="32">
         <v>0</v>
       </c>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
     </row>
     <row r="8" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="27" t="s">
         <v>36</v>
       </c>
@@ -1831,11 +1829,11 @@
       <c r="U8" s="32">
         <v>0</v>
       </c>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
@@ -1904,7 +1902,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="27" t="s">
         <v>38</v>
       </c>
@@ -1965,13 +1963,13 @@
       <c r="U10" s="32">
         <v>0</v>
       </c>
-      <c r="V10" s="62" t="s">
+      <c r="V10" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="W10" s="62"/>
+      <c r="W10" s="63"/>
     </row>
     <row r="11" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="27" t="s">
         <v>39</v>
       </c>
@@ -2032,13 +2030,13 @@
       <c r="U11" s="32">
         <v>0</v>
       </c>
-      <c r="V11" s="62" t="s">
+      <c r="V11" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="W11" s="62"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="27" t="s">
         <v>41</v>
       </c>
@@ -2099,11 +2097,11 @@
       <c r="U12" s="34">
         <v>1</v>
       </c>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="64" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="35" t="s">
@@ -2174,7 +2172,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="27" t="s">
         <v>44</v>
       </c>
@@ -2235,11 +2233,11 @@
       <c r="U14" s="34">
         <v>1</v>
       </c>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
     </row>
     <row r="15" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="27" t="s">
         <v>45</v>
       </c>
@@ -2300,13 +2298,13 @@
       <c r="U15" s="34">
         <v>1</v>
       </c>
-      <c r="V15" s="62" t="s">
+      <c r="V15" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="W15" s="62"/>
+      <c r="W15" s="63"/>
     </row>
     <row r="16" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="27" t="s">
         <v>46</v>
       </c>
@@ -2375,7 +2373,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="14" t="s">
         <v>47</v>
       </c>
@@ -2444,7 +2442,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="27" t="s">
         <v>48</v>
       </c>
@@ -2505,13 +2503,13 @@
       <c r="U18" s="40">
         <v>4</v>
       </c>
-      <c r="V18" s="62" t="s">
+      <c r="V18" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="W18" s="62"/>
+      <c r="W18" s="63"/>
     </row>
     <row r="19" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="27" t="s">
         <v>49</v>
       </c>
@@ -2572,13 +2570,13 @@
       <c r="U19" s="32">
         <v>0</v>
       </c>
-      <c r="V19" s="62" t="s">
+      <c r="V19" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="W19" s="62"/>
+      <c r="W19" s="63"/>
     </row>
     <row r="20" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="27" t="s">
         <v>50</v>
       </c>
@@ -2647,7 +2645,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="64" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="35" t="s">
@@ -2710,13 +2708,13 @@
       <c r="U21" s="34">
         <v>1</v>
       </c>
-      <c r="V21" s="62" t="s">
+      <c r="V21" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="W21" s="62"/>
+      <c r="W21" s="63"/>
     </row>
     <row r="22" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="14" t="s">
         <v>53</v>
       </c>
@@ -2777,13 +2775,13 @@
       <c r="U22" s="38">
         <v>2</v>
       </c>
-      <c r="V22" s="62" t="s">
+      <c r="V22" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="W22" s="62"/>
+      <c r="W22" s="63"/>
     </row>
     <row r="23" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="27" t="s">
         <v>54</v>
       </c>
@@ -2844,13 +2842,13 @@
       <c r="U23" s="26">
         <v>3</v>
       </c>
-      <c r="V23" s="62" t="s">
+      <c r="V23" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="W23" s="62"/>
+      <c r="W23" s="63"/>
     </row>
     <row r="24" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="14" t="s">
         <v>55</v>
       </c>
@@ -2911,11 +2909,11 @@
       <c r="U24" s="34">
         <v>1</v>
       </c>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
     </row>
     <row r="25" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="64" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="41" t="s">
@@ -2978,11 +2976,11 @@
       <c r="U25" s="34">
         <v>1</v>
       </c>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
     </row>
     <row r="26" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="27" t="s">
         <v>58</v>
       </c>
@@ -3051,7 +3049,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="27" t="s">
         <v>59</v>
       </c>
@@ -3112,11 +3110,11 @@
       <c r="U27" s="40">
         <v>4</v>
       </c>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="14" t="s">
         <v>60</v>
       </c>
@@ -3177,13 +3175,13 @@
       <c r="U28" s="34">
         <v>1</v>
       </c>
-      <c r="V28" s="62" t="s">
+      <c r="V28" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="W28" s="62"/>
+      <c r="W28" s="63"/>
     </row>
     <row r="29" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="27" t="s">
         <v>61</v>
       </c>
@@ -3244,11 +3242,11 @@
       <c r="U29" s="32">
         <v>0</v>
       </c>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
     </row>
     <row r="30" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="27" t="s">
         <v>62</v>
       </c>
@@ -3309,13 +3307,13 @@
       <c r="U30" s="40">
         <v>4</v>
       </c>
-      <c r="V30" s="62" t="s">
+      <c r="V30" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="W30" s="62"/>
+      <c r="W30" s="63"/>
     </row>
     <row r="31" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="27" t="s">
         <v>63</v>
       </c>
@@ -3376,13 +3374,13 @@
       <c r="U31" s="34">
         <v>1</v>
       </c>
-      <c r="V31" s="62" t="s">
+      <c r="V31" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="W31" s="62"/>
+      <c r="W31" s="63"/>
     </row>
     <row r="32" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="64" t="s">
         <v>64</v>
       </c>
       <c r="B32" s="41" t="s">
@@ -3453,7 +3451,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="8" t="s">
         <v>93</v>
       </c>
@@ -3514,11 +3512,11 @@
       <c r="U33" s="32">
         <v>0</v>
       </c>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
     </row>
     <row r="34" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="27" t="s">
         <v>66</v>
       </c>
@@ -3579,13 +3577,13 @@
       <c r="U34" s="32">
         <v>0</v>
       </c>
-      <c r="V34" s="62" t="s">
+      <c r="V34" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="W34" s="62"/>
+      <c r="W34" s="63"/>
     </row>
     <row r="35" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="27" t="s">
         <v>67</v>
       </c>
@@ -3646,11 +3644,11 @@
       <c r="U35" s="43">
         <v>1</v>
       </c>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
     </row>
     <row r="36" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="27" t="s">
         <v>68</v>
       </c>
@@ -3711,13 +3709,13 @@
       <c r="U36" s="32">
         <v>0</v>
       </c>
-      <c r="V36" s="62" t="s">
+      <c r="V36" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="W36" s="62"/>
+      <c r="W36" s="63"/>
     </row>
     <row r="37" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="27" t="s">
         <v>69</v>
       </c>
@@ -3778,13 +3776,13 @@
       <c r="U37" s="26">
         <v>3</v>
       </c>
-      <c r="V37" s="62" t="s">
+      <c r="V37" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="W37" s="62"/>
+      <c r="W37" s="63"/>
     </row>
     <row r="38" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="27" t="s">
         <v>70</v>
       </c>
@@ -3845,11 +3843,11 @@
       <c r="U38" s="43">
         <v>1</v>
       </c>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
     </row>
     <row r="39" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="14" t="s">
         <v>71</v>
       </c>
@@ -3910,11 +3908,11 @@
       <c r="U39" s="40">
         <v>4</v>
       </c>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
     </row>
     <row r="40" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="14" t="s">
         <v>72</v>
       </c>
@@ -3975,13 +3973,13 @@
       <c r="U40" s="43">
         <v>1</v>
       </c>
-      <c r="V40" s="62" t="s">
+      <c r="V40" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="W40" s="62"/>
+      <c r="W40" s="63"/>
     </row>
     <row r="41" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="27" t="s">
         <v>73</v>
       </c>
@@ -4042,13 +4040,13 @@
       <c r="U41" s="26">
         <v>3</v>
       </c>
-      <c r="V41" s="62" t="s">
+      <c r="V41" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="W41" s="62"/>
+      <c r="W41" s="63"/>
     </row>
     <row r="42" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="64" t="s">
         <v>74</v>
       </c>
       <c r="B42" s="35" t="s">
@@ -4119,7 +4117,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="27" t="s">
         <v>76</v>
       </c>
@@ -4188,7 +4186,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="27" t="s">
         <v>77</v>
       </c>
@@ -4249,11 +4247,11 @@
       <c r="U44" s="43">
         <v>1</v>
       </c>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
+      <c r="V44" s="62"/>
+      <c r="W44" s="62"/>
     </row>
     <row r="45" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="27" t="s">
         <v>78</v>
       </c>
@@ -4314,11 +4312,11 @@
       <c r="U45" s="32">
         <v>0</v>
       </c>
-      <c r="V45" s="64"/>
-      <c r="W45" s="64"/>
+      <c r="V45" s="62"/>
+      <c r="W45" s="62"/>
     </row>
     <row r="46" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="27" t="s">
         <v>79</v>
       </c>
@@ -4384,7 +4382,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="27" t="s">
         <v>80</v>
       </c>
@@ -4453,7 +4451,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="27" t="s">
         <v>81</v>
       </c>
@@ -4514,13 +4512,13 @@
       <c r="U48" s="43">
         <v>1</v>
       </c>
-      <c r="V48" s="62" t="s">
+      <c r="V48" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="W48" s="62"/>
+      <c r="W48" s="63"/>
     </row>
     <row r="49" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="27" t="s">
         <v>82</v>
       </c>
@@ -4581,13 +4579,13 @@
       <c r="U49" s="43">
         <v>1</v>
       </c>
-      <c r="V49" s="62" t="s">
+      <c r="V49" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="W49" s="62"/>
+      <c r="W49" s="63"/>
     </row>
     <row r="50" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="27" t="s">
         <v>83</v>
       </c>
@@ -4648,13 +4646,13 @@
       <c r="U50" s="43">
         <v>1</v>
       </c>
-      <c r="V50" s="62" t="s">
+      <c r="V50" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="W50" s="62"/>
+      <c r="W50" s="63"/>
     </row>
     <row r="51" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="27" t="s">
         <v>84</v>
       </c>
@@ -4723,7 +4721,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="65" t="s">
         <v>85</v>
       </c>
       <c r="B52" s="41" t="s">
@@ -4786,11 +4784,11 @@
       <c r="U52" s="32">
         <v>0</v>
       </c>
-      <c r="V52" s="64"/>
-      <c r="W52" s="64"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="62"/>
     </row>
     <row r="53" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="27" t="s">
         <v>87</v>
       </c>
@@ -4851,11 +4849,11 @@
       <c r="U53" s="32">
         <v>0</v>
       </c>
-      <c r="V53" s="64"/>
-      <c r="W53" s="64"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
     </row>
     <row r="54" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="27" t="s">
         <v>88</v>
       </c>
@@ -4916,13 +4914,13 @@
       <c r="U54" s="43">
         <v>1</v>
       </c>
-      <c r="V54" s="62" t="s">
+      <c r="V54" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="W54" s="62"/>
+      <c r="W54" s="63"/>
     </row>
     <row r="55" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="27" t="s">
         <v>89</v>
       </c>
@@ -4983,13 +4981,13 @@
       <c r="U55" s="40">
         <v>4</v>
       </c>
-      <c r="V55" s="62" t="s">
+      <c r="V55" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="W55" s="62"/>
+      <c r="W55" s="63"/>
     </row>
     <row r="56" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="27" t="s">
         <v>90</v>
       </c>
@@ -5058,7 +5056,7 @@
       </c>
     </row>
     <row r="57" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="27" t="s">
         <v>91</v>
       </c>
@@ -5119,13 +5117,13 @@
       <c r="U57" s="32">
         <v>0</v>
       </c>
-      <c r="V57" s="62" t="s">
+      <c r="V57" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="W57" s="62"/>
+      <c r="W57" s="63"/>
     </row>
     <row r="58" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="44" t="s">
         <v>92</v>
       </c>
@@ -5229,16 +5227,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="V44:W45"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V52:W53"/>
-    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="V22:W22"/>
@@ -5255,48 +5259,18 @@
     <mergeCell ref="V36:W36"/>
     <mergeCell ref="V37:W37"/>
     <mergeCell ref="V38:W38"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="V44:W45"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V52:W53"/>
+    <mergeCell ref="V54:W54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>